--- a/ressource/S11/scripts/Admin/ActiveDirectory/Sources/Ecotech-Listing.xlsx
+++ b/ressource/S11/scripts/Admin/ActiveDirectory/Sources/Ecotech-Listing.xlsx
@@ -2,23 +2,36 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LocalGit\TSSR-2402-P3-G2-BuildYourInfra-EcoTechSolutions\ressource\S11\scripts\Sources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LocalGit\TSSR-2402-P3-G2-BuildYourInfra-EcoTechSolutions\ressource\S11\scripts\Admin\ActiveDirectory\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB6182D-695C-4F55-9BDC-E057729F2DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC39A42B-7E14-4FA6-A375-80A588DDD816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="4305" windowWidth="30660" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19920" yWindow="1305" windowWidth="30660" windowHeight="15435" xr2:uid="{2CF90324-76BA-4B31-A067-134EF8D16A3E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Listing" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listing!$A$1:$O$68</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -974,11 +987,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1007,13 +1021,6 @@
       <color theme="1"/>
       <name val="Docs-Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1041,7 +1048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1054,7 +1061,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,56 +1079,150 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1184,13 +1284,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1199,6 +1292,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1263,33 +1363,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:O67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A941D0-1BC5-4183-8CF9-D4C1479855D3}">
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="1" max="15" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -3875,38 +3989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="10"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="10"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="10"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="10"/>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="10"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="10"/>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="10"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="10"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="10"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O68" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>